--- a/database/student_list.xlsx
+++ b/database/student_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LF work\LF running courses\CX2002\Assignment\2023S1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elain\Documents\2)NTU Uni\2_year2\y2s1\2) SC2002 Object Oriented Design and Programming\sc2002Assignment\sc2002-project\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A21032-4AA7-4669-B59C-E86C3DA62B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0D0618-E14D-4D12-A702-F7999D5D0888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5088" yWindow="1908" windowWidth="17280" windowHeight="8916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A13" sqref="A13:XFD226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/database/student_list.xlsx
+++ b/database/student_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elain\Documents\2)NTU Uni\2_year2\y2s1\2) SC2002 Object Oriented Design and Programming\sc2002Assignment\sc2002-project\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sengy\Desktop\Workspace\School\NTU\SC2002 (OOP)\sc2002-project\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0D0618-E14D-4D12-A702-F7999D5D0888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C20FD5F-BFE0-4F9A-87D5-E177827CDBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,18 +44,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t xml:space="preserve">CHERN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KOH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRANDON </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALVIN </t>
-  </si>
-  <si>
     <t>CHAN</t>
   </si>
   <si>
@@ -68,12 +56,6 @@
     <t>ERNEST</t>
   </si>
   <si>
-    <t xml:space="preserve">LEE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIU </t>
-  </si>
-  <si>
     <t>RAWAL</t>
   </si>
   <si>
@@ -126,6 +108,24 @@
   </si>
   <si>
     <t>SSS</t>
+  </si>
+  <si>
+    <t>CHERN</t>
+  </si>
+  <si>
+    <t>KOH</t>
+  </si>
+  <si>
+    <t>BRANDON</t>
+  </si>
+  <si>
+    <t>CALVIN</t>
+  </si>
+  <si>
+    <t>LEE</t>
+  </si>
+  <si>
+    <t>LIU</t>
   </si>
 </sst>
 </file>
@@ -472,16 +472,16 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD226"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.54296875" customWidth="1"/>
+    <col min="2" max="2" width="36.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -489,128 +489,128 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
